--- a/Employee_Reports29/Lemuel Celeste Anacleto Q0150.xlsx
+++ b/Employee_Reports29/Lemuel Celeste Anacleto Q0150.xlsx
@@ -18,13 +18,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
@@ -74,7 +78,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -448,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,8 +462,8 @@
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="73" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -568,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -617,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -645,8 +649,10 @@
           <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
-        <v/>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>LSME-OHS-SOP-021</t>
+        </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -664,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
@@ -692,8 +698,10 @@
           <t>IMS</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
-        <v/>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-021</t>
+        </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
@@ -711,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -739,8 +747,10 @@
           <t>IMS</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
-        <v/>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
@@ -758,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -795,11 +805,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -823,8 +833,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n">
-        <v/>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-041</t>
+        </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
@@ -842,11 +854,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -870,8 +882,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n">
-        <v/>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-003</t>
+        </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
@@ -889,11 +903,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -917,8 +931,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D11" s="3" t="n">
-        <v/>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-009</t>
+        </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
@@ -936,11 +952,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -964,8 +980,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D12" s="3" t="n">
-        <v/>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-010</t>
+        </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
@@ -983,11 +1001,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1006,9 +1024,21 @@
           <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr"/>
-      <c r="E13" s="3" t="inlineStr"/>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-001</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
           <t>26-Jul-2025</t>
@@ -1020,11 +1050,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1048,8 +1078,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D14" s="3" t="n">
-        <v/>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-011</t>
+        </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
@@ -1067,11 +1099,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1095,8 +1127,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D15" s="3" t="n">
-        <v/>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-018</t>
+        </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
@@ -1114,11 +1148,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1127,6 +1161,27 @@
         </is>
       </c>
       <c r="K15" s="3" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>YOU ARE LISTED AS ; SENIOR TECHNICIAN</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>&amp; THIS IS YOUR TRAINING DASHBOARD</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr"/>
+      <c r="E16" s="3" t="inlineStr"/>
+      <c r="F16" s="3" t="inlineStr"/>
+      <c r="G16" s="3" t="inlineStr"/>
+      <c r="H16" s="3" t="inlineStr"/>
+      <c r="I16" s="3" t="inlineStr"/>
+      <c r="J16" s="3" t="inlineStr"/>
+      <c r="K16" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
